--- a/genshin/430311746894760205_2020-09-02_14-29-21.xlsx
+++ b/genshin/430311746894760205_2020-09-02_14-29-21.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:50:51</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.11864583333</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>3446290899</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:20:20</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44077.55578703704</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>3447972714</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:19:52</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44077.55546296296</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -760,10 +770,8 @@
           <t>3446465756</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:16:47</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44077.55332175926</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -831,10 +839,8 @@
           <t>3446703993</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:03:28</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44077.54407407407</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -894,10 +900,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-09-03 13:02:56</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44077.5437037037</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -957,10 +961,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-09-03 12:02:41</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44077.50186342592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1032,10 +1034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-09-03 12:00:14</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44077.50016203704</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1095,10 +1095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-09-03 08:35:04</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44077.35768518518</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1158,10 +1156,8 @@
           <t>3446695717</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-09-03 08:22:31</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44077.34896990741</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1221,10 +1217,8 @@
           <t>3446363182</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-09-03 07:00:47</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44077.29221064815</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1292,10 +1286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-09-03 04:45:39</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44077.19836805556</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1363,10 +1355,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-09-03 03:53:56</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44077.16245370371</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1442,10 +1432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-09-03 00:31:53</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44077.02214120371</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1513,10 +1501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-09-02 23:42:35</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44076.9879050926</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1592,10 +1578,8 @@
           <t>3446390688</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-09-02 23:07:44</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44076.9637037037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1663,10 +1647,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:52:25</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44076.95306712963</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1734,10 +1716,8 @@
           <t>3446390688</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:44:03</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44076.94725694445</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1801,10 +1781,8 @@
           <t>3447972714</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-09-02 22:44:02</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44076.94724537037</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1872,10 +1850,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-09-02 21:12:43</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44076.88383101852</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1947,10 +1923,8 @@
           <t>3446703993</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-09-02 21:07:55</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44076.88049768518</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2018,10 +1992,8 @@
           <t>3446363182</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-09-02 20:30:26</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44076.8544675926</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2090,10 +2062,8 @@
           <t>3446363182</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-09-02 20:25:32</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44076.85106481481</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2169,10 +2139,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-09-02 19:49:23</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44076.82596064815</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2249,10 +2217,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-09-02 19:33:13</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44076.81473379629</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2324,10 +2290,8 @@
           <t>3446695717</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-09-02 19:30:59</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44076.81318287037</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2399,10 +2363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-09-02 19:29:18</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44076.81201388889</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2474,10 +2436,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-09-02 19:11:21</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44076.79954861111</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2554,10 +2514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-09-02 19:05:41</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44076.79561342593</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2617,10 +2575,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:48:12</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44076.78347222223</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2689,10 +2645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:33:55</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44076.77355324074</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2760,10 +2714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:21:06</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44076.76465277778</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2823,10 +2775,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:17:24</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44076.76208333333</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
@@ -2898,10 +2848,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:16:38</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44076.76155092593</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2973,10 +2921,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:15:03</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44076.76045138889</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3048,10 +2994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:14:17</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44076.75991898148</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3123,10 +3067,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:14:12</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44076.75986111111</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3198,10 +3140,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:14:05</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44076.75978009259</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3270,10 +3210,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:13:12</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44076.75916666666</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3345,10 +3283,8 @@
           <t>3446390688</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:12:13</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44076.75848379629</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -3416,10 +3352,8 @@
           <t>3446363182</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:11:05</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44076.75769675926</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3483,10 +3417,8 @@
           <t>3446695717</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:10:26</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44076.75724537037</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3546,10 +3478,8 @@
           <t>3446363182</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:03:50</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44076.75266203703</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3613,10 +3543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:03:27</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44076.75239583333</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3680,10 +3608,8 @@
           <t>3446695717</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:01:31</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44076.75105324074</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3755,10 +3681,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-09-02 18:00:33</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44076.75038194445</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3834,10 +3758,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:54:54</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44076.74645833333</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -3913,10 +3835,8 @@
           <t>3446703993</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:45:49</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44076.74015046296</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3976,10 +3896,8 @@
           <t>3446708794</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:37:18</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44076.73423611111</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4048,10 +3966,8 @@
           <t>3446703993</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:36:57</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44076.73399305555</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4123,10 +4039,8 @@
           <t>3446695717</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:32:00</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44076.73055555556</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4198,10 +4112,8 @@
           <t>3446695331</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:31:42</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44076.73034722222</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4273,10 +4185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:27:57</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44076.72774305556</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4336,10 +4246,8 @@
           <t>3446655472</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:19:45</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44076.72204861111</v>
       </c>
       <c r="I55" t="n">
         <v>2</v>
@@ -4403,10 +4311,8 @@
           <t>3446644738</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:19:03</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44076.7215625</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4474,10 +4380,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-09-02 17:06:47</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44076.71304398148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4546,10 +4450,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:52:20</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44076.70300925926</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4618,10 +4520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:33:37</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44076.69001157407</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -4693,10 +4593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:21:04</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44076.68129629629</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4760,10 +4658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:20:42</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44076.68104166666</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4839,10 +4735,8 @@
           <t>3446463689</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:16:34</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44076.6781712963</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4918,10 +4812,8 @@
           <t>3446465756</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:16:14</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44076.67793981481</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4997,10 +4889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:15:54</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44076.67770833334</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5064,10 +4954,8 @@
           <t>3446453564</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:13:55</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44076.67633101852</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5139,10 +5027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:12:53</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44076.67561342593</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5206,10 +5092,8 @@
           <t>3446444902</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:12:20</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44076.67523148148</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5285,10 +5169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:08:17</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44076.67241898148</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5364,10 +5246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-09-02 16:04:06</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44076.66951388889</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5435,10 +5315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:58:36</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44076.66569444445</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5506,10 +5384,8 @@
           <t>3446204355</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:48:23</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44076.65859953704</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5581,10 +5457,8 @@
           <t>3446390688</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:48:12</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44076.65847222223</v>
       </c>
       <c r="I72" t="n">
         <v>6</v>
@@ -5656,10 +5530,8 @@
           <t>3446363182</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:45:03</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44076.65628472222</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5723,10 +5595,8 @@
           <t>3446363182</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:39:26</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44076.65238425926</v>
       </c>
       <c r="I74" t="n">
         <v>11</v>
@@ -5795,10 +5665,8 @@
           <t>3446340978</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:28:20</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44076.64467592593</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5862,10 +5730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:28:09</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44076.64454861111</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -5929,10 +5795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:19:24</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44076.63847222222</v>
       </c>
       <c r="I77" t="n">
         <v>4</v>
@@ -6011,10 +5875,8 @@
           <t>3446315408</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:18:01</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44076.63751157407</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6090,10 +5952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:16:55</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44076.63674768519</v>
       </c>
       <c r="I79" t="n">
         <v>5</v>
@@ -6169,10 +6029,8 @@
           <t>3446204355</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:14:07</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44076.63480324074</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6240,10 +6098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:11:14</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44076.63280092592</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6319,10 +6175,8 @@
           <t>3446290899</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:10:00</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44076.63194444445</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6386,10 +6240,8 @@
           <t>3446290820</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:09:54</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44076.631875</v>
       </c>
       <c r="I83" t="n">
         <v>27</v>
@@ -6465,10 +6317,8 @@
           <t>3446269124</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:01:56</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44076.62634259259</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6541,10 +6391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-09-02 15:01:26</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44076.62599537037</v>
       </c>
       <c r="I85" t="n">
         <v>38</v>
@@ -6612,10 +6460,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:59:27</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44076.62461805555</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6679,10 +6525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:58:50</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44076.62418981481</v>
       </c>
       <c r="I87" t="n">
         <v>26</v>
@@ -6750,10 +6594,8 @@
           <t>3446204355</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:57:45</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44076.6234375</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6821,10 +6663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:56:10</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44076.62233796297</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6888,10 +6728,8 @@
           <t>3446257014</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:55:04</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44076.62157407407</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6967,10 +6805,8 @@
           <t>3446256384</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:54:19</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44076.62105324074</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7046,10 +6882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:51:34</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44076.61914351852</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7113,10 +6947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:51:25</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44076.61903935186</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7188,10 +7020,8 @@
           <t>3446235856</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:51:21</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44076.61899305556</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7259,10 +7089,8 @@
           <t>3446204355</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:51:01</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44076.61876157407</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7330,10 +7158,8 @@
           <t>3446204355</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:50:53</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44076.61866898148</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7401,10 +7227,8 @@
           <t>3446242764</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:50:03</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44076.61809027778</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7472,10 +7296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:49:25</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44076.61765046296</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7551,10 +7373,8 @@
           <t>3446232961</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:48:03</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44076.61670138889</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7626,10 +7446,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:47:37</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44076.61640046296</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7705,10 +7523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:46:25</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44076.61556712963</v>
       </c>
       <c r="I101" t="n">
         <v>19</v>
@@ -7772,10 +7588,8 @@
           <t>3446235856</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:45:50</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44076.61516203704</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7851,10 +7665,8 @@
           <t>3446227211</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:43:10</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44076.61331018519</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7926,10 +7738,8 @@
           <t>3446218726</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:42:51</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44076.61309027778</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7993,10 +7803,8 @@
           <t>3446226275</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:42:02</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44076.61252314815</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8064,10 +7872,8 @@
           <t>3446225117</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:40:38</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44076.61155092593</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8135,10 +7941,8 @@
           <t>3446214814</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:40:16</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44076.61129629629</v>
       </c>
       <c r="I107" t="n">
         <v>6</v>
@@ -8214,10 +8018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:38:56</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44076.61037037037</v>
       </c>
       <c r="I108" t="n">
         <v>4</v>
@@ -8237,9 +8039,10 @@
           <t>男</t>
         </is>
       </c>
-      <c r="M108">
-        <f>w=</f>
-        <v/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>=w=</t>
+        </is>
       </c>
       <c r="N108" t="n">
         <v>6</v>
@@ -8280,10 +8083,8 @@
           <t>3446204355</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:38:28</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44076.61004629629</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8351,10 +8152,8 @@
           <t>3446209450</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:38:12</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44076.60986111111</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8430,10 +8229,8 @@
           <t>3446204767</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:37:56</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44076.60967592592</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8509,10 +8306,8 @@
           <t>3446204355</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:37:26</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44076.6093287037</v>
       </c>
       <c r="I112" t="n">
         <v>1</v>
@@ -8580,10 +8375,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:37:23</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44076.60929398148</v>
       </c>
       <c r="I113" t="n">
         <v>68</v>
@@ -8659,10 +8452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:37:00</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44076.60902777778</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8730,10 +8521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:36:42</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44076.60881944445</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8797,10 +8586,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:36:02</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44076.60835648148</v>
       </c>
       <c r="I116" t="n">
         <v>18</v>
@@ -8864,10 +8651,8 @@
           <t>3446207657</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:36:02</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44076.60835648148</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8939,10 +8724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:34:39</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44076.60739583334</v>
       </c>
       <c r="I118" t="n">
         <v>8</v>
@@ -9018,10 +8801,8 @@
           <t>3446199647</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:34:11</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44076.60707175926</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9097,10 +8878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:33:52</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44076.60685185185</v>
       </c>
       <c r="I120" t="n">
         <v>124</v>
@@ -9168,10 +8947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:33:22</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44076.60650462963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9247,10 +9024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:32:32</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44076.60592592593</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9326,10 +9101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:32:20</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44076.60578703704</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9401,10 +9174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:31:53</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44076.60547453703</v>
       </c>
       <c r="I124" t="n">
         <v>99</v>
@@ -9480,10 +9251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:31:53</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44076.60547453703</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9551,10 +9320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:31:10</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44076.60497685185</v>
       </c>
       <c r="I126" t="n">
         <v>12</v>
@@ -9622,10 +9389,8 @@
           <t>3446193264</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:50</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44076.60474537037</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9689,10 +9454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:34</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44076.60456018519</v>
       </c>
       <c r="I128" t="n">
         <v>10</v>
@@ -9761,10 +9524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:25</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44076.60445601852</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9828,10 +9589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:20</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44076.60439814815</v>
       </c>
       <c r="I130" t="n">
         <v>2</v>
@@ -9895,10 +9654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:14</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44076.6043287037</v>
       </c>
       <c r="I131" t="n">
         <v>4</v>
@@ -9970,10 +9727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:12</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44076.60430555556</v>
       </c>
       <c r="I132" t="n">
         <v>4</v>
@@ -10045,10 +9800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:10</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44076.60428240741</v>
       </c>
       <c r="I133" t="n">
         <v>2</v>
@@ -10112,10 +9865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:09</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44076.60427083333</v>
       </c>
       <c r="I134" t="n">
         <v>2</v>
@@ -10191,10 +9942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:08</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44076.60425925926</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10258,10 +10007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:04</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44076.60421296296</v>
       </c>
       <c r="I136" t="n">
         <v>697</v>
@@ -10337,10 +10084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:30:02</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44076.60418981482</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10408,10 +10153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:29:55</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44076.60410879629</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10483,10 +10226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:29:53</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44076.60408564815</v>
       </c>
       <c r="I139" t="n">
         <v>5</v>
@@ -10558,10 +10299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:29:46</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44076.60400462963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10637,10 +10376,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-09-02 14:29:32</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44076.60384259259</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
